--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/git/pradhapganesanjs/ts-ng/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="16440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
     <sheet name="ts-examples" sheetId="3" r:id="rId2"/>
     <sheet name="ng4-notes" sheetId="2" r:id="rId3"/>
+    <sheet name="x vs y" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>TypeScript</t>
   </si>
@@ -102,6 +95,106 @@
 --------- class, interface, Generics 
 -- Type inference, Union Type ( | or ), Tuple Types
 --------- </t>
+  </si>
+  <si>
+    <t>angular4</t>
+  </si>
+  <si>
+    <t>selector</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>-- selector
+-- html
+-- css</t>
+  </si>
+  <si>
+    <t>ES6</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>NO interface</t>
+  </si>
+  <si>
+    <t>interface exactly work as java interface</t>
+  </si>
+  <si>
+    <t>No enum</t>
+  </si>
+  <si>
+    <t>enum work as like java</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>-- multiple router outlets
+-- Guard route
+-- lazy load of module</t>
+  </si>
+  <si>
+    <t>Guard - Pre-condition to run before open up route</t>
+  </si>
+  <si>
+    <t>-- Component Based
+-- Router
+-- UI component
+-- Dependency Injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Component
+</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>@Injectable</t>
+  </si>
+  <si>
+    <t>Services are annotated with injectable</t>
+  </si>
+  <si>
+    <t>@Input</t>
+  </si>
+  <si>
+    <t>@Output</t>
+  </si>
+  <si>
+    <t>Inter-component communication
+-- @Input
+-- @Output
+-- EventEmitter</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>{….}</t>
+  </si>
+  <si>
+    <t>DataBinding</t>
+  </si>
+  <si>
+    <t>[….]</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- template-driven form
+-- Reactive form
+-- </t>
+  </si>
+  <si>
+    <t>npm script</t>
+  </si>
+  <si>
+    <t>ng build -prod</t>
   </si>
 </sst>
 </file>
@@ -810,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -820,22 +913,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="138" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="46.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -845,7 +938,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -854,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -866,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -875,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>4</v>
@@ -884,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
@@ -894,7 +987,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
@@ -904,7 +997,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
@@ -914,7 +1007,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
@@ -924,7 +1017,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
@@ -934,7 +1027,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -944,7 +1037,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -954,7 +1047,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -964,7 +1057,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -974,7 +1067,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
@@ -984,7 +1077,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -994,7 +1087,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
@@ -1014,20 +1107,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1042,12 +1135,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/git/pradhapganesanjs/ts-ng/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="16440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
     <sheet name="ts-examples" sheetId="3" r:id="rId2"/>
-    <sheet name="ng4-notes" sheetId="2" r:id="rId3"/>
+    <sheet name="ng4-notes" sheetId="6" r:id="rId3"/>
     <sheet name="x vs y" sheetId="4" r:id="rId4"/>
+    <sheet name="ES6 vs TS" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>TypeScript</t>
   </si>
@@ -97,18 +106,10 @@
 --------- </t>
   </si>
   <si>
-    <t>angular4</t>
-  </si>
-  <si>
     <t>selector</t>
   </si>
   <si>
     <t>Component</t>
-  </si>
-  <si>
-    <t>-- selector
--- html
--- css</t>
   </si>
   <si>
     <t>ES6</t>
@@ -138,16 +139,6 @@
   </si>
   <si>
     <t>Guard - Pre-condition to run before open up route</t>
-  </si>
-  <si>
-    <t>-- Component Based
--- Router
--- UI component
--- Dependency Injection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@Component
-</t>
   </si>
   <si>
     <t>DI</t>
@@ -195,13 +186,326 @@
   </si>
   <si>
     <t>ng build -prod</t>
+  </si>
+  <si>
+    <t>Why Typescript?</t>
+  </si>
+  <si>
+    <t>-- Typed Javascript
+-- Modular
+-- Scalable Structured 
+-- Tools - Comiler, API reference, Refactor, backward compatible etc</t>
+  </si>
+  <si>
+    <t>ES6 - JAVA SCRIPT</t>
+  </si>
+  <si>
+    <t>TYPE SCRIPT</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>class, interface, abstract</t>
+  </si>
+  <si>
+    <t>access modifer</t>
+  </si>
+  <si>
+    <t>access specifier</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>same name as class name no return</t>
+  </si>
+  <si>
+    <t>only on function</t>
+  </si>
+  <si>
+    <t>variable, method and inner class</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Type Spec</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>private
+public
+protected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static,
+final,
+transient,
+volatile
+</t>
+  </si>
+  <si>
+    <t>constructor(…){…}
+-- overloaded constructors are NOT possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constructor(…){…}
+-- Multiple constructor implementations are NOT allowed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variables/props can only be declared/defined in constructor.
+class members can be 
+-- constructor
+-- function
+-- static function
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var/props must be declared outside constructor.
+class members can be:
+-- constructor
+-- function
+-- static function
+-- arrow function
+-- variables declaration/definition
+</t>
+  </si>
+  <si>
+    <t>annonymos block,
+static block, 
+variables,
+methods,
+classes</t>
+  </si>
+  <si>
+    <t>class, 
+interface, 
+abstract</t>
+  </si>
+  <si>
+    <t>Generics,
+:number, :string, :boolean</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>same like in java</t>
+  </si>
+  <si>
+    <t>What Angular4 still comprises?</t>
+  </si>
+  <si>
+    <t>-- Two way binding
+-- Component
+-- Directive
+-- Service
+-- Routing
+-- Dependency Injection
+-- Forms
+-- Observable
+-- Pipes
+-- Http</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>Angular CLI</t>
+  </si>
+  <si>
+    <t>angular Command Line Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ npm install -g @angular/cli
+</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>Create a project</t>
+  </si>
+  <si>
+    <t>$ ng new &lt;my-app&gt;
+&lt;proj&gt;$ ng serve</t>
+  </si>
+  <si>
+    <t>Create a component</t>
+  </si>
+  <si>
+    <t>$ ng generate component my-account</t>
+  </si>
+  <si>
+    <t>bootstrap into ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ npm install --save bootstrap
+</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>.angular-cli.json</t>
+  </si>
+  <si>
+    <t>config and contains all info about the project which was created using @angular/cli</t>
+  </si>
+  <si>
+    <t>package.json</t>
+  </si>
+  <si>
+    <t>mention the version and dependencies; npm install will install all ng dependencies into node_modules</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>NgModule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container of all other modules.
+-- its container of bootstrap app </t>
+  </si>
+  <si>
+    <t>Each component comprises of below items
+-- html (templateUrl)
+-- css (styleUrls)
+-- selector</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>-- in ng 1.5 its called directive.
+-- it can be a tag or attribute in html tag</t>
+  </si>
+  <si>
+    <t>selector as tag</t>
+  </si>
+  <si>
+    <t>selector as attr</t>
+  </si>
+  <si>
+    <t>selector as class</t>
+  </si>
+  <si>
+    <t>selector : '[ xyz ]' - syntax for attribute directive</t>
+  </si>
+  <si>
+    <t>selector : ' xyz ' - syntax for tag directive</t>
+  </si>
+  <si>
+    <t>selector : ' . xyz '  - for class directive</t>
+  </si>
+  <si>
+    <t>Data Binding</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Oneway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+&lt;Business Logic&gt;   ---output---&gt; HTML
+HTML                    ---input----&gt; &lt;Business Logic&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Twoway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : 
+&lt;BusinessLogic&gt;  &lt;---twoway---&gt; HTML
+-- {{ }}  - String Interpolation
+-- [  ]    - Property Binding 
+-- (   )   - Event Binding
+-- [(  )]  - Two-way Binding</t>
+    </r>
+  </si>
+  <si>
+    <t>Property Binding</t>
+  </si>
+  <si>
+    <t>Event Binding</t>
+  </si>
+  <si>
+    <t>Two-way Binding</t>
+  </si>
+  <si>
+    <t>[ ] - HTML properties (attr) to bind with ng component.
+--Ex: disabled is html property</t>
+  </si>
+  <si>
+    <t>( ) - User/Html events to bind with ng component
+--Ex: OnInput Event bind with ng component.</t>
+  </si>
+  <si>
+    <t>[(  )] - twoway bind DOM with ng
+-- Ex: ngModel - the model value renders throug user inputs or components</t>
+  </si>
+  <si>
+    <t>Directives</t>
+  </si>
+  <si>
+    <t>ng-template</t>
+  </si>
+  <si>
+    <t>#tmplateName - is like ID refer in other Directive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*ngIf </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,16 +526,35 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -428,11 +751,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -483,6 +966,138 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,13 +1173,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>62606</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>62607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3720206</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>2261548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -610,15 +1225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73623</xdr:colOff>
+      <xdr:colOff>2282320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>46014</xdr:rowOff>
+      <xdr:rowOff>266883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1262343</xdr:colOff>
+      <xdr:colOff>3471040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1231910</xdr:rowOff>
+      <xdr:rowOff>1452779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -635,8 +1250,852 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8613913" y="524565"/>
+          <a:off x="10829972" y="730709"/>
           <a:ext cx="1188720" cy="1185896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>35775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2138895</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1582667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9243275" y="1200418"/>
+          <a:ext cx="2103120" cy="1537949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1910080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1960308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="98000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5453380" y="5801361"/>
+          <a:ext cx="1828800" cy="1899347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3078480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1196110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="7830821"/>
+          <a:ext cx="2926080" cy="1124989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>70000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2833200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>583471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="19000" contrast="100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260000" y="11040000"/>
+          <a:ext cx="2743200" cy="513471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>580000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3198960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1234881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260000" y="11550000"/>
+          <a:ext cx="3108960" cy="654881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2346000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>285263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5230000" y="12360000"/>
+          <a:ext cx="2286000" cy="225263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>70000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>280000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2356000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>717902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="29000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="25000" contrast="100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5240000" y="12580000"/>
+          <a:ext cx="2286000" cy="437902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2386000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>273630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId14">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="63000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="32000" contrast="75000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270000" y="13180000"/>
+          <a:ext cx="2286000" cy="223630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>270001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2843200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>510905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId16">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="25000" contrast="75000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270000" y="13400001"/>
+          <a:ext cx="2743200" cy="240904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2953200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1943109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId18">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-21000" contrast="69000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5380000" y="13860001"/>
+          <a:ext cx="2743200" cy="1883108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3564720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>504204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId20">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="65000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="12000" contrast="74000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260000" y="15900001"/>
+          <a:ext cx="3474720" cy="424203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50001</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3707601</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>378564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId22">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="18000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="26000" contrast="68000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8840001" y="16440000"/>
+          <a:ext cx="3657600" cy="338564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3198960</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>653209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId24">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="29000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="7000" contrast="64000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260000" y="16430000"/>
+          <a:ext cx="3108960" cy="623209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2366000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>692932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId26">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="12000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="24000" contrast="72000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5250000" y="17170001"/>
+          <a:ext cx="2286000" cy="632931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>70000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1956400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>783104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId28">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="53000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="25000" contrast="71000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260000" y="18440000"/>
+          <a:ext cx="5486400" cy="713104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>70000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1966400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>276384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId30">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="92000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="1000" contrast="46000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270000" y="18140000"/>
+          <a:ext cx="5486400" cy="206384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,7 +2362,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,24 +2370,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="2"/>
+    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -938,7 +2397,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -946,58 +2405,57 @@
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
@@ -1007,7 +2465,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
@@ -1017,7 +2475,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
@@ -1027,7 +2485,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -1037,7 +2495,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -1047,7 +2505,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -1057,7 +2515,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -1067,7 +2525,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
@@ -1077,7 +2535,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -1087,15 +2545,25 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1107,20 +2575,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1135,127 +2603,533 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D17"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="127" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:8" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="51"/>
+    </row>
+    <row r="19" spans="1:8" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="B19" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="B21" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:8" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="B22" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45"/>
+      <c r="B32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="55"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
+      <c r="B36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="53"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
+      <c r="B40" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E39:F39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1267,31 +3141,406 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="21" customWidth="1"/>
+    <col min="4" max="4" width="39" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/git/pradhapganesanjs/ts-ng/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="16440" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
     <sheet name="ts-examples" sheetId="3" r:id="rId2"/>
     <sheet name="ng4-notes" sheetId="6" r:id="rId3"/>
-    <sheet name="x vs y" sheetId="4" r:id="rId4"/>
-    <sheet name="ES6 vs TS" sheetId="5" r:id="rId5"/>
+    <sheet name="ng4-proj" sheetId="7" r:id="rId4"/>
+    <sheet name="x vs y" sheetId="4" r:id="rId5"/>
+    <sheet name="ES6 vs TS" sheetId="5" r:id="rId6"/>
+    <sheet name="Design Decision" sheetId="8" r:id="rId7"/>
+    <sheet name="err-sols" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t>TypeScript</t>
   </si>
@@ -500,12 +495,108 @@
   <si>
     <t xml:space="preserve">*ngIf </t>
   </si>
+  <si>
+    <t>* (start)</t>
+  </si>
+  <si>
+    <t>input/output</t>
+  </si>
+  <si>
+    <t>Directives deals with input and outputs;
+Inputs to Directive through Property Binding [ ]
+Output from Directive through Event Binding ( )</t>
+  </si>
+  <si>
+    <t>EventEmitter</t>
+  </si>
+  <si>
+    <t>-- it helps to differencitate regular attribute and structural directive.
+-- * before attribute selector indicates - it’s a structural directive.
+-- a convenience notation into a marked-up &lt;ng-template&gt;</t>
+  </si>
+  <si>
+    <t>@Directive</t>
+  </si>
+  <si>
+    <t>Pipe</t>
+  </si>
+  <si>
+    <t>@Pipe</t>
+  </si>
+  <si>
+    <t>npm uninstall -g angular-cli
+npm cache clean
+npm install -g angular-cli@latest</t>
+  </si>
+  <si>
+    <t>Add Bootstrap 4 to Angular project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npm install --save bootstrap@4.0.0-alpha.6
+</t>
+  </si>
+  <si>
+    <t>npm install –save bootstrap@next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install Angular CLI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a new Angular project </t>
+  </si>
+  <si>
+    <t>add a new component</t>
+  </si>
+  <si>
+    <t>ng g component my-component</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>keep all model/service under services;
+views under view folder
+controller under controllers.</t>
+  </si>
+  <si>
+    <t>when application going with many flows… like many new urls… many new services.. Folder structure going to be very vague</t>
+  </si>
+  <si>
+    <t>npm install -g @angular/cli</t>
+  </si>
+  <si>
+    <t>npm uninstall -g angular-cli
+npm uninstall --save-dev angular-cli
+npm uninstall -g @angular/cli
+npm cache clean</t>
+  </si>
+  <si>
+    <t>ng new appName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisites:
+</t>
+  </si>
+  <si>
+    <t>node –version 9.3.0
+npm –version 5.5.1</t>
+  </si>
+  <si>
+    <t>Please try running this command again as root/Administrator</t>
+  </si>
+  <si>
+    <t>npm cache clean -f</t>
+  </si>
+  <si>
+    <t>$ng new appName --directory ./
+$ng new ng-myproj --skip-install --directory ./ng-myproj</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,6 +629,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -915,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1055,49 +1158,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2104,6 +2219,265 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3523826</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>647627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId32">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="31000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-9000" contrast="52000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="20888325"/>
+          <a:ext cx="3390476" cy="580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2742321</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1621155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId34">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="32000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="22640925"/>
+          <a:ext cx="2656596" cy="1554480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1733336</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>266676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId36">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="59000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="4000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="22650450"/>
+          <a:ext cx="1714286" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2122170</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1582344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId38">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="4000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-7000" contrast="43000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="22898100"/>
+          <a:ext cx="2103120" cy="1258494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3553663</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1592580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId40">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="37000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11029950" y="22612350"/>
+          <a:ext cx="1305763" cy="1554480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2362,7 +2736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2376,18 +2750,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="46.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -2397,7 +2771,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -2407,7 +2781,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>36</v>
       </c>
@@ -2415,7 +2789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -2427,7 +2801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -2436,7 +2810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
         <v>4</v>
@@ -2445,7 +2819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
@@ -2455,7 +2829,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
@@ -2465,7 +2839,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
@@ -2475,7 +2849,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
@@ -2485,7 +2859,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -2495,7 +2869,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -2505,7 +2879,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -2515,7 +2889,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -2525,7 +2899,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
@@ -2535,7 +2909,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -2545,7 +2919,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -2555,7 +2929,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
@@ -2579,16 +2953,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2603,24 +2977,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="127" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="50" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -2628,7 +3002,7 @@
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2638,21 +3012,21 @@
       <c r="G2" s="6"/>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="1:8" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="137.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
@@ -2662,7 +3036,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
@@ -2672,7 +3046,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="46"/>
     </row>
-    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="8" t="s">
         <v>68</v>
@@ -2686,11 +3060,13 @@
       <c r="E6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="8" t="s">
         <v>72</v>
@@ -2706,7 +3082,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="46"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="8" t="s">
         <v>72</v>
@@ -2722,7 +3098,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="46"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="8" t="s">
         <v>68</v>
@@ -2738,7 +3114,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="46"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -2748,7 +3124,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="46"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
@@ -2758,7 +3134,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
@@ -2768,7 +3144,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="46"/>
     </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
         <v>79</v>
@@ -2784,7 +3160,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="46"/>
     </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="8" t="s">
         <v>79</v>
@@ -2800,7 +3176,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="46"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
@@ -2810,7 +3186,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="46"/>
     </row>
-    <row r="16" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="8" t="s">
         <v>84</v>
@@ -2826,7 +3202,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="46"/>
     </row>
-    <row r="17" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="8" t="s">
         <v>84</v>
@@ -2842,88 +3218,88 @@
       <c r="G17" s="10"/>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
+    <row r="18" spans="1:8" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="51"/>
-    </row>
-    <row r="19" spans="1:8" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="B19" s="50" t="s">
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="1:8" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="50" t="s">
+    <row r="20" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="50" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="B21" s="50" t="s">
+    <row r="21" spans="1:8" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" s="50" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="50" t="s">
+    <row r="23" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="50" t="s">
+    <row r="24" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="51" t="s">
+    <row r="25" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="51" t="s">
+    <row r="26" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B26" s="49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="50" t="s">
+    <row r="27" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
@@ -2933,7 +3309,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="46"/>
     </row>
-    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>88</v>
       </c>
@@ -2949,7 +3325,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="46"/>
     </row>
-    <row r="31" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="8" t="s">
         <v>90</v>
@@ -2963,7 +3339,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="46"/>
     </row>
-    <row r="32" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="8" t="s">
         <v>91</v>
@@ -2977,7 +3353,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="46"/>
     </row>
-    <row r="33" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="8" t="s">
         <v>92</v>
@@ -2991,29 +3367,29 @@
       <c r="G33" s="10"/>
       <c r="H33" s="46"/>
     </row>
-    <row r="34" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="46"/>
     </row>
-    <row r="35" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="51" t="s">
         <v>101</v>
       </c>
       <c r="E35" s="9"/>
@@ -3021,7 +3397,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="8" t="s">
         <v>96</v>
@@ -3037,89 +3413,193 @@
       <c r="G36" s="10"/>
       <c r="H36" s="46"/>
     </row>
-    <row r="37" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="46"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="46"/>
     </row>
-    <row r="39" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="61"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="46"/>
     </row>
-    <row r="40" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="61"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
+      <c r="B41" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="46"/>
     </row>
-    <row r="42" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
+      <c r="B42" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="46"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+    <row r="43" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="62"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="62"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="62"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="45"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3135,13 +3615,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="64"/>
+    <col min="2" max="2" width="29.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="64" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="65" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -3172,31 +3727,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="21" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="21" customWidth="1"/>
     <col min="4" max="4" width="39" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="21"/>
+    <col min="6" max="16384" width="10.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -3204,7 +3759,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="29"/>
       <c r="C3" s="30" t="s">
@@ -3218,7 +3773,7 @@
       </c>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="33"/>
       <c r="C4" s="34"/>
@@ -3226,7 +3781,7 @@
       <c r="E4" s="36"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="33" t="s">
         <v>41</v>
@@ -3242,7 +3797,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="33" t="s">
         <v>43</v>
@@ -3256,7 +3811,7 @@
       </c>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="33" t="s">
         <v>44</v>
@@ -3272,7 +3827,7 @@
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="33" t="s">
         <v>46</v>
@@ -3288,7 +3843,7 @@
       </c>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="33" t="s">
         <v>45</v>
@@ -3304,7 +3859,7 @@
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="33" t="s">
         <v>50</v>
@@ -3320,7 +3875,7 @@
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="33" t="s">
         <v>51</v>
@@ -3336,7 +3891,7 @@
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="33" t="s">
         <v>64</v>
@@ -3352,7 +3907,7 @@
       </c>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
@@ -3360,7 +3915,7 @@
       <c r="E13" s="36"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
@@ -3368,7 +3923,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
@@ -3376,7 +3931,7 @@
       <c r="E15" s="36"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -3384,7 +3939,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
@@ -3392,7 +3947,7 @@
       <c r="E17" s="36"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
@@ -3400,7 +3955,7 @@
       <c r="E18" s="36"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
@@ -3408,7 +3963,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -3416,7 +3971,7 @@
       <c r="E20" s="36"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -3424,7 +3979,7 @@
       <c r="E21" s="36"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
@@ -3432,7 +3987,7 @@
       <c r="E22" s="36"/>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
@@ -3440,7 +3995,7 @@
       <c r="E23" s="36"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="33"/>
       <c r="C24" s="34"/>
@@ -3448,7 +4003,7 @@
       <c r="E24" s="36"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="33"/>
       <c r="C25" s="34"/>
@@ -3456,7 +4011,7 @@
       <c r="E25" s="36"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="33"/>
       <c r="C26" s="34"/>
@@ -3464,7 +4019,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="33"/>
       <c r="C27" s="34"/>
@@ -3472,7 +4027,7 @@
       <c r="E27" s="36"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
@@ -3480,7 +4035,7 @@
       <c r="E28" s="36"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="33"/>
       <c r="C29" s="34"/>
@@ -3488,7 +4043,7 @@
       <c r="E29" s="36"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="33"/>
       <c r="C30" s="34"/>
@@ -3496,7 +4051,7 @@
       <c r="E30" s="36"/>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="33"/>
       <c r="C31" s="34"/>
@@ -3504,7 +4059,7 @@
       <c r="E31" s="36"/>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="33"/>
       <c r="C32" s="34"/>
@@ -3512,7 +4067,7 @@
       <c r="E32" s="36"/>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="33"/>
       <c r="C33" s="34"/>
@@ -3520,7 +4075,7 @@
       <c r="E33" s="36"/>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="33"/>
       <c r="C34" s="34"/>
@@ -3528,7 +4083,7 @@
       <c r="E34" s="36"/>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
@@ -3536,7 +4091,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -3545,4 +4100,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="49.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -1185,6 +1185,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1202,18 +1214,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2736,7 +2736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3017,10 +3017,10 @@
       <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -3372,10 +3372,10 @@
       <c r="B34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
@@ -3448,8 +3448,8 @@
       <c r="D39" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="61"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
       <c r="G39" s="55"/>
       <c r="H39" s="46"/>
     </row>
@@ -3464,8 +3464,8 @@
       <c r="D40" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="55"/>
       <c r="H40" s="46"/>
     </row>
@@ -3477,7 +3477,7 @@
       <c r="C41" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="56" t="s">
         <v>112</v>
       </c>
       <c r="E41" s="54"/>
@@ -3493,7 +3493,7 @@
       <c r="C42" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="56" t="s">
         <v>110</v>
       </c>
       <c r="E42" s="54"/>
@@ -3506,10 +3506,10 @@
       <c r="B43" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="62"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
       <c r="G43" s="55"/>
@@ -3520,10 +3520,10 @@
       <c r="B44" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="62"/>
+      <c r="D44" s="56"/>
       <c r="E44" s="54"/>
       <c r="F44" s="54"/>
       <c r="G44" s="55"/>
@@ -3537,7 +3537,7 @@
       <c r="C45" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="62"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="54"/>
       <c r="F45" s="54"/>
       <c r="G45" s="55"/>
@@ -3547,7 +3547,7 @@
       <c r="A46" s="45"/>
       <c r="B46" s="52"/>
       <c r="C46" s="53"/>
-      <c r="D46" s="62"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="55"/>
@@ -3557,7 +3557,7 @@
       <c r="A47" s="45"/>
       <c r="B47" s="52"/>
       <c r="C47" s="53"/>
-      <c r="D47" s="62"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="54"/>
       <c r="F47" s="54"/>
       <c r="G47" s="55"/>
@@ -3567,7 +3567,7 @@
       <c r="A48" s="45"/>
       <c r="B48" s="52"/>
       <c r="C48" s="53"/>
-      <c r="D48" s="62"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="55"/>
@@ -3577,7 +3577,7 @@
       <c r="A49" s="45"/>
       <c r="B49" s="52"/>
       <c r="C49" s="53"/>
-      <c r="D49" s="62"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
       <c r="G49" s="55"/>
@@ -3623,62 +3623,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="64"/>
-    <col min="2" max="2" width="29.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="64" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="65" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="64"/>
+    <col min="1" max="1" width="9" style="58"/>
+    <col min="2" max="2" width="29.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="58" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5" style="59" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="58" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="59" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="59" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="59" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="59" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="59" t="s">
         <v>119</v>
       </c>
     </row>

--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="16440" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="16440" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
   <si>
     <t>TypeScript</t>
   </si>
@@ -590,6 +590,12 @@
   <si>
     <t>$ng new appName --directory ./
 $ng new ng-myproj --skip-install --directory ./ng-myproj</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>SOLS</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2980,7 +2986,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3617,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4137,18 +4143,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C3"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>132</v>
